--- a/L00_Funciones_Excel.xlsx
+++ b/L00_Funciones_Excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cetecom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cetecom\Desktop\Estad-stica-descriptiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad 1" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="Actividad 3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -178,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>Laboratorio 0: Funciones básicas de Excel</t>
   </si>
@@ -488,6 +491,18 @@
   <si>
     <t>f) ¿Qué porcentaje de las personas tienen 2 televisores? Use la tabla dinámica para responder.</t>
   </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de CANTIDAD TV</t>
+  </si>
+  <si>
+    <t>Cuenta de GÉNERO</t>
+  </si>
 </sst>
 </file>
 
@@ -496,7 +511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +632,21 @@
     <font>
       <u/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -923,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1036,6 +1066,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,18 +1139,18 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,6 +1167,240 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Cetecom" refreshedDate="45520.817344097224" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="15">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B6:E21" sheet="Actividad 3"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="N° ENCUESTADO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+    </cacheField>
+    <cacheField name="EDAD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="45" count="6">
+        <n v="24"/>
+        <n v="19"/>
+        <n v="35"/>
+        <n v="40"/>
+        <n v="23"/>
+        <n v="45"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GÉNERO" numFmtId="0">
+      <sharedItems count="2">
+        <s v="FEMENINO"/>
+        <s v="MASCULINO"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CANTIDAD TV" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="2"/>
+        <n v="5"/>
+        <n v="1"/>
+        <n v="4"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J26:J27" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de GÉNERO" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I4:J7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de CANTIDAD TV" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1413,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,43 +1703,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O5" s="1"/>
@@ -1565,7 +1844,7 @@
         <f>AVERAGE(C7:N7)</f>
         <v>5193.416666666667</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="54">
         <f>O7/O17</f>
         <v>0.10737298765023708</v>
       </c>
@@ -1618,7 +1897,7 @@
         <f t="shared" ref="P8:P16" si="1">AVERAGE(C8:N8)</f>
         <v>4589.916666666667</v>
       </c>
-      <c r="Q8" s="73">
+      <c r="Q8" s="54">
         <f>O8/O17</f>
         <v>9.4895729959201675E-2</v>
       </c>
@@ -1671,7 +1950,7 @@
         <f t="shared" si="1"/>
         <v>3645.5833333333335</v>
       </c>
-      <c r="Q9" s="73">
+      <c r="Q9" s="54">
         <f>O9/$O$17</f>
         <v>7.5371802293527398E-2</v>
       </c>
@@ -1689,7 +1968,7 @@
       <c r="E10" s="30">
         <v>6560</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="56">
         <v>9968</v>
       </c>
       <c r="G10" s="30">
@@ -1724,7 +2003,7 @@
         <f t="shared" si="1"/>
         <v>5206.333333333333</v>
       </c>
-      <c r="Q10" s="73">
+      <c r="Q10" s="54">
         <f t="shared" ref="Q10:Q16" si="2">O10/$O$17</f>
         <v>0.10764003749035175</v>
       </c>
@@ -1777,7 +2056,7 @@
         <f t="shared" si="1"/>
         <v>5118.5</v>
       </c>
-      <c r="Q11" s="73">
+      <c r="Q11" s="54">
         <f t="shared" si="2"/>
         <v>0.10582409857757195</v>
       </c>
@@ -1813,7 +2092,7 @@
       <c r="K12" s="30">
         <v>1874</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="55">
         <v>160</v>
       </c>
       <c r="M12" s="30">
@@ -1830,7 +2109,7 @@
         <f t="shared" si="1"/>
         <v>4587.25</v>
       </c>
-      <c r="Q12" s="73">
+      <c r="Q12" s="54">
         <f t="shared" si="2"/>
         <v>9.4840597088984457E-2</v>
       </c>
@@ -1883,7 +2162,7 @@
         <f t="shared" si="1"/>
         <v>4506.75</v>
       </c>
-      <c r="Q13" s="73">
+      <c r="Q13" s="54">
         <f t="shared" si="2"/>
         <v>9.3176273569302012E-2</v>
       </c>
@@ -1928,7 +2207,7 @@
       <c r="N14" s="30">
         <v>7837</v>
       </c>
-      <c r="O14" s="72">
+      <c r="O14" s="53">
         <f t="shared" si="0"/>
         <v>77556</v>
       </c>
@@ -1936,7 +2215,7 @@
         <f t="shared" si="1"/>
         <v>6463</v>
       </c>
-      <c r="Q14" s="73">
+      <c r="Q14" s="54">
         <f t="shared" si="2"/>
         <v>0.13362140258021832</v>
       </c>
@@ -1989,7 +2268,7 @@
         <f t="shared" si="1"/>
         <v>5116.916666666667</v>
       </c>
-      <c r="Q15" s="73">
+      <c r="Q15" s="54">
         <f t="shared" si="2"/>
         <v>0.10579136343588047</v>
       </c>
@@ -2042,7 +2321,7 @@
         <f t="shared" si="1"/>
         <v>3940.3333333333335</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="Q16" s="54">
         <f t="shared" si="2"/>
         <v>8.1465707354724887E-2</v>
       </c>
@@ -2053,55 +2332,55 @@
         <v>29</v>
       </c>
       <c r="C17" s="42">
-        <f>SUM(C7:C16)</f>
+        <f t="shared" ref="C17:O17" si="3">SUM(C7:C16)</f>
         <v>56551</v>
       </c>
       <c r="D17" s="42">
-        <f>SUM(D7:D16)</f>
+        <f t="shared" si="3"/>
         <v>66115</v>
       </c>
       <c r="E17" s="42">
-        <f>SUM(E7:E16)</f>
+        <f t="shared" si="3"/>
         <v>55431</v>
       </c>
       <c r="F17" s="42">
-        <f>SUM(F7:F16)</f>
+        <f t="shared" si="3"/>
         <v>45697</v>
       </c>
       <c r="G17" s="42">
-        <f>SUM(G7:G16)</f>
+        <f t="shared" si="3"/>
         <v>36670</v>
       </c>
       <c r="H17" s="42">
-        <f>SUM(H7:H16)</f>
+        <f t="shared" si="3"/>
         <v>42672</v>
       </c>
       <c r="I17" s="42">
-        <f>SUM(I7:I16)</f>
+        <f t="shared" si="3"/>
         <v>34251</v>
       </c>
       <c r="J17" s="42">
-        <f>SUM(J7:J16)</f>
+        <f t="shared" si="3"/>
         <v>49298</v>
       </c>
       <c r="K17" s="42">
-        <f>SUM(K7:K16)</f>
+        <f t="shared" si="3"/>
         <v>32902</v>
       </c>
       <c r="L17" s="42">
-        <f>SUM(L7:L16)</f>
+        <f t="shared" si="3"/>
         <v>57977</v>
       </c>
       <c r="M17" s="42">
-        <f>SUM(M7:M16)</f>
+        <f t="shared" si="3"/>
         <v>43026</v>
       </c>
       <c r="N17" s="42">
-        <f>SUM(N7:N16)</f>
+        <f t="shared" si="3"/>
         <v>59826</v>
       </c>
       <c r="O17" s="42">
-        <f>SUM(O7:O16)</f>
+        <f t="shared" si="3"/>
         <v>580416</v>
       </c>
       <c r="P17" s="43"/>
@@ -2117,47 +2396,47 @@
         <v>5655</v>
       </c>
       <c r="D18" s="42">
-        <f t="shared" ref="D18:N18" si="3">INT(AVERAGE(D7:D16))</f>
+        <f t="shared" ref="D18:N18" si="4">INT(AVERAGE(D7:D16))</f>
         <v>6611</v>
       </c>
       <c r="E18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5543</v>
       </c>
       <c r="F18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4569</v>
       </c>
       <c r="G18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3667</v>
       </c>
       <c r="H18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4267</v>
       </c>
       <c r="I18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3425</v>
       </c>
       <c r="J18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4929</v>
       </c>
       <c r="K18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3290</v>
       </c>
       <c r="L18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5797</v>
       </c>
       <c r="M18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4302</v>
       </c>
       <c r="N18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5982</v>
       </c>
       <c r="O18" s="42"/>
@@ -2221,13 +2500,13 @@
       <c r="Q21" s="44"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
@@ -2259,13 +2538,13 @@
       <c r="Q23" s="44"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
@@ -2297,13 +2576,13 @@
       <c r="Q25" s="44"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
@@ -2335,13 +2614,13 @@
       <c r="Q27" s="44"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
@@ -2373,13 +2652,13 @@
       <c r="Q29" s="44"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
@@ -2449,20 +2728,20 @@
       <c r="Q33" s="44"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
       <c r="N34" s="44"/>
       <c r="O34" s="44"/>
       <c r="P34" s="44"/>
@@ -2487,21 +2766,21 @@
       <c r="Q35" s="44"/>
     </row>
     <row r="36" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="55">
+      <c r="B36" s="60">
         <f>MAX(C7:N16)</f>
         <v>9968</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="57"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="62"/>
       <c r="N36" s="44"/>
       <c r="O36" s="44"/>
       <c r="P36" s="44"/>
@@ -2526,20 +2805,20 @@
       <c r="Q37" s="44"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="44"/>
       <c r="O38" s="44"/>
       <c r="P38" s="44"/>
@@ -2564,21 +2843,21 @@
       <c r="Q39" s="44"/>
     </row>
     <row r="40" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55">
+      <c r="B40" s="60">
         <f>MIN(C7:N16)</f>
         <v>160</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="57"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="44"/>
       <c r="O40" s="44"/>
       <c r="P40" s="44"/>
@@ -2734,15 +3013,15 @@
         <v>3813</v>
       </c>
       <c r="O99" s="5">
-        <f t="shared" ref="O99:O108" si="4">SUM(C99:N99)</f>
+        <f t="shared" ref="O99:O108" si="5">SUM(C99:N99)</f>
         <v>55079</v>
       </c>
       <c r="P99" s="5">
-        <f t="shared" ref="P99:P107" si="5">INT(AVERAGE(C99:N99))</f>
+        <f t="shared" ref="P99:P107" si="6">INT(AVERAGE(C99:N99))</f>
         <v>4589</v>
       </c>
       <c r="Q99" s="5">
-        <f t="shared" ref="Q99:Q107" si="6">O99/$O$108</f>
+        <f t="shared" ref="Q99:Q107" si="7">O99/$O$108</f>
         <v>9.4895729959201675E-2</v>
       </c>
     </row>
@@ -2787,15 +3066,15 @@
         <v>6932</v>
       </c>
       <c r="O100" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43747</v>
       </c>
       <c r="P100" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3645</v>
       </c>
       <c r="Q100" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5371802293527398E-2</v>
       </c>
     </row>
@@ -2840,15 +3119,15 @@
         <v>9960</v>
       </c>
       <c r="O101" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62476</v>
       </c>
       <c r="P101" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5206</v>
       </c>
       <c r="Q101" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10764003749035175</v>
       </c>
     </row>
@@ -2893,15 +3172,15 @@
         <v>8716</v>
       </c>
       <c r="O102" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61422</v>
       </c>
       <c r="P102" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5118</v>
       </c>
       <c r="Q102" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10582409857757195</v>
       </c>
     </row>
@@ -2946,15 +3225,15 @@
         <v>6707</v>
       </c>
       <c r="O103" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55047</v>
       </c>
       <c r="P103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4587</v>
       </c>
       <c r="Q103" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.4840597088984457E-2</v>
       </c>
     </row>
@@ -2999,15 +3278,15 @@
         <v>831</v>
       </c>
       <c r="O104" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54081</v>
       </c>
       <c r="P104" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4506</v>
       </c>
       <c r="Q104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3176273569302012E-2</v>
       </c>
     </row>
@@ -3052,15 +3331,15 @@
         <v>7837</v>
       </c>
       <c r="O105" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77556</v>
       </c>
       <c r="P105" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6463</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13362140258021832</v>
       </c>
     </row>
@@ -3105,15 +3384,15 @@
         <v>6259</v>
       </c>
       <c r="O106" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61403</v>
       </c>
       <c r="P106" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5116</v>
       </c>
       <c r="Q106" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10579136343588047</v>
       </c>
     </row>
@@ -3158,15 +3437,15 @@
         <v>5185</v>
       </c>
       <c r="O107" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47284</v>
       </c>
       <c r="P107" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3940</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1465707354724887E-2</v>
       </c>
     </row>
@@ -3175,55 +3454,55 @@
         <v>29</v>
       </c>
       <c r="C108" s="5">
-        <f t="shared" ref="C108:N108" si="7">SUM(C98:C107)</f>
+        <f t="shared" ref="C108:N108" si="8">SUM(C98:C107)</f>
         <v>56551</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66115</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55431</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45697</v>
       </c>
       <c r="G108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36670</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42672</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34251</v>
       </c>
       <c r="J108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49298</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32902</v>
       </c>
       <c r="L108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57977</v>
       </c>
       <c r="M108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43026</v>
       </c>
       <c r="N108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59826</v>
       </c>
       <c r="O108" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>580416</v>
       </c>
     </row>
@@ -3236,51 +3515,51 @@
         <v>5655</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" ref="D109:O109" si="8">INT(AVERAGE(D98:D107))</f>
+        <f t="shared" ref="D109:O109" si="9">INT(AVERAGE(D98:D107))</f>
         <v>6611</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5543</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4569</v>
       </c>
       <c r="G109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3667</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4267</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3425</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4929</v>
       </c>
       <c r="K109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3290</v>
       </c>
       <c r="L109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5797</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4302</v>
       </c>
       <c r="N109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5982</v>
       </c>
       <c r="O109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58041</v>
       </c>
     </row>
@@ -3319,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O104"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,37 +3614,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
@@ -3756,14 +4035,35 @@
       <c r="C18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="D18" s="47">
+        <f>AVERAGE(D8:D17)</f>
+        <v>4.7500000000000009</v>
+      </c>
+      <c r="E18" s="47">
+        <f t="shared" ref="E18:I18" si="0">AVERAGE(E8:E17)</f>
+        <v>5.1199999999999992</v>
+      </c>
+      <c r="F18" s="47">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="G18" s="47">
+        <f t="shared" si="0"/>
+        <v>6.4699999999999989</v>
+      </c>
+      <c r="H18" s="47">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="I18" s="47">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
       <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
+      <c r="K18" s="47">
+        <f t="shared" ref="K18" si="1">AVERAGE(K8:K17)</f>
+        <v>4.4000000000000004</v>
+      </c>
       <c r="L18" s="47"/>
     </row>
     <row r="19" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3771,14 +4071,35 @@
       <c r="C19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="D19" s="37">
+        <f>MAX(D8:D17)</f>
+        <v>6.2</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" ref="E19:I19" si="2">MAX(E8:E17)</f>
+        <v>6.3</v>
+      </c>
+      <c r="F19" s="37">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H19" s="37">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I19" s="37">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
       <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="K19" s="37">
+        <f>MAX(K8:K17)</f>
+        <v>5.0999999999999996</v>
+      </c>
       <c r="L19" s="37"/>
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3786,14 +4107,35 @@
       <c r="C20" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="D20" s="37">
+        <f>MIN(D8:D17)</f>
+        <v>3.7</v>
+      </c>
+      <c r="E20" s="37">
+        <f t="shared" ref="E20:I20" si="3">MIN(E8:E17)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F20" s="37">
+        <f t="shared" si="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="G20" s="37">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="H20" s="37">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="I20" s="37">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="37">
+        <f>MIN(K8:K17)</f>
+        <v>3.4</v>
+      </c>
       <c r="L20" s="37"/>
     </row>
     <row r="21" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,12 +4143,30 @@
       <c r="C21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="D21" s="37">
+        <f>COUNTIF(D8:D17, "&lt;4")</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="37">
+        <f t="shared" ref="E21:I21" si="4">COUNTIF(E8:E17, "&lt;4")</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
@@ -3816,33 +4176,52 @@
       <c r="C22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="D22" s="37">
+        <f>COUNTIF(D8:D17, "&gt;=4")</f>
+        <v>7</v>
+      </c>
+      <c r="E22" s="37">
+        <f t="shared" ref="E22:I22" si="5">COUNTIF(E8:E17, "&gt;=4")</f>
+        <v>9</v>
+      </c>
+      <c r="F22" s="37">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G22" s="37">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H22" s="37">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I22" s="37">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="27"/>
@@ -3851,65 +4230,65 @@
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4044,14 +4423,14 @@
         <v>6</v>
       </c>
       <c r="J91" s="5">
-        <f t="shared" ref="J91:J99" si="0">ROUND(D91*$D$6+E91*$E$6+F91*$F$6+G91*$G$6+H91*$H$6+I91*$I$6,1)</f>
+        <f t="shared" ref="J91:J99" si="6">ROUND(D91*$D$6+E91*$E$6+F91*$F$6+G91*$G$6+H91*$H$6+I91*$I$6,1)</f>
         <v>4.8</v>
       </c>
       <c r="K91" s="8">
         <v>4.5</v>
       </c>
       <c r="L91" s="5">
-        <f t="shared" ref="L91:L100" si="1">ROUND(J91*$J$6+K91*$K$6,1)</f>
+        <f t="shared" ref="L91:L100" si="7">ROUND(J91*$J$6+K91*$K$6,1)</f>
         <v>4.7</v>
       </c>
     </row>
@@ -4081,14 +4460,14 @@
         <v>4</v>
       </c>
       <c r="J92" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.4</v>
       </c>
       <c r="K92" s="8">
         <v>3.8</v>
       </c>
       <c r="L92" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.8</v>
       </c>
     </row>
@@ -4118,14 +4497,14 @@
         <v>4</v>
       </c>
       <c r="J93" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.8</v>
       </c>
       <c r="K93" s="8">
         <v>4.2</v>
       </c>
       <c r="L93" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
     </row>
@@ -4155,14 +4534,14 @@
         <v>4</v>
       </c>
       <c r="J94" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
       <c r="K94" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="L94" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.2</v>
       </c>
     </row>
@@ -4192,14 +4571,14 @@
         <v>6</v>
       </c>
       <c r="J95" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="K95" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="L95" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -4229,14 +4608,14 @@
         <v>6</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.3</v>
       </c>
       <c r="K96" s="8">
         <v>3.4</v>
       </c>
       <c r="L96" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
     </row>
@@ -4266,14 +4645,14 @@
         <v>6.5</v>
       </c>
       <c r="J97" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K97" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="L97" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
@@ -4303,14 +4682,14 @@
         <v>5</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.3</v>
       </c>
       <c r="K98" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
@@ -4340,14 +4719,14 @@
         <v>5</v>
       </c>
       <c r="J99" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.4</v>
       </c>
       <c r="K99" s="8">
         <v>3.7</v>
       </c>
       <c r="L99" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.7</v>
       </c>
     </row>
@@ -4356,39 +4735,39 @@
         <v>66</v>
       </c>
       <c r="D100" s="11">
-        <f t="shared" ref="D100:K100" si="2">ROUND(AVERAGE(D90:D99),1)</f>
+        <f t="shared" ref="D100:K100" si="8">ROUND(AVERAGE(D90:D99),1)</f>
         <v>4.8</v>
       </c>
       <c r="E100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="F100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.3</v>
       </c>
       <c r="G100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="H100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.8</v>
       </c>
       <c r="I100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.2</v>
       </c>
       <c r="J100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.3</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="L100" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4401,35 +4780,35 @@
         <v>6.2</v>
       </c>
       <c r="E101" s="11">
-        <f t="shared" ref="E101:L101" si="3">MAX(E90:E99)</f>
+        <f t="shared" ref="E101:L101" si="9">MAX(E90:E99)</f>
         <v>6.3</v>
       </c>
       <c r="F101" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="H101" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I101" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
       <c r="J101" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.8</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="L101" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.2</v>
       </c>
     </row>
@@ -4442,35 +4821,35 @@
         <v>3.7</v>
       </c>
       <c r="E102" s="11">
-        <f t="shared" ref="E102:L102" si="4">MIN(E90:E99)</f>
+        <f t="shared" ref="E102:L102" si="10">MIN(E90:E99)</f>
         <v>3.5</v>
       </c>
       <c r="F102" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.8</v>
       </c>
       <c r="G102" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.2</v>
       </c>
       <c r="H102" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="I102" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J102" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.8</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.4</v>
       </c>
       <c r="L102" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
     </row>
@@ -4483,35 +4862,35 @@
         <v>3</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" ref="E103:L103" si="5">COUNTIF(E90:E99,"&lt;4")</f>
+        <f t="shared" ref="E103:L103" si="11">COUNTIF(E90:E99,"&lt;4")</f>
         <v>1</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="L103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4520,39 +4899,39 @@
         <v>79</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" ref="D104:L104" si="6">$B$17-D103</f>
+        <f t="shared" ref="D104:L104" si="12">$B$17-D103</f>
         <v>7</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="J104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="K104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="L104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
     </row>
@@ -4588,10 +4967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4602,42 +4981,62 @@
     <col min="4" max="4" width="17.5703125" style="15" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="15" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="15"/>
+    <col min="7" max="8" width="11.42578125" style="15"/>
+    <col min="9" max="9" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="15" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="14" style="15" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="51" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="I4" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="78">
+        <v>21</v>
+      </c>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="28" t="s">
         <v>82</v>
@@ -4652,8 +5051,15 @@
         <v>85</v>
       </c>
       <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="78">
+        <v>18</v>
+      </c>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="30">
         <v>1</v>
       </c>
@@ -4667,8 +5073,15 @@
         <v>2</v>
       </c>
       <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="78">
+        <v>39</v>
+      </c>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="30">
         <v>2</v>
       </c>
@@ -4682,8 +5095,11 @@
         <v>5</v>
       </c>
       <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30">
         <v>3</v>
       </c>
@@ -4697,8 +5113,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="30">
         <v>4</v>
       </c>
@@ -4712,8 +5131,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30">
         <v>5</v>
       </c>
@@ -4727,8 +5149,11 @@
         <v>2</v>
       </c>
       <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="30">
         <v>6</v>
       </c>
@@ -4742,8 +5167,11 @@
         <v>4</v>
       </c>
       <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="30">
         <v>7</v>
       </c>
@@ -4757,8 +5185,11 @@
         <v>2</v>
       </c>
       <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30">
         <v>8</v>
       </c>
@@ -4772,8 +5203,11 @@
         <v>3</v>
       </c>
       <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="30">
         <v>9</v>
       </c>
@@ -4787,8 +5221,11 @@
         <v>2</v>
       </c>
       <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="30">
         <v>10</v>
       </c>
@@ -4802,8 +5239,11 @@
         <v>4</v>
       </c>
       <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30">
         <v>11</v>
       </c>
@@ -4817,8 +5257,11 @@
         <v>2</v>
       </c>
       <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="30">
         <v>12</v>
       </c>
@@ -4832,8 +5275,11 @@
         <v>2</v>
       </c>
       <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="30">
         <v>13</v>
       </c>
@@ -4847,8 +5293,11 @@
         <v>3</v>
       </c>
       <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30">
         <v>14</v>
       </c>
@@ -4862,8 +5311,11 @@
         <v>2</v>
       </c>
       <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="30">
         <v>15</v>
       </c>
@@ -4877,15 +5329,18 @@
         <v>4</v>
       </c>
       <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="50" t="s">
         <v>88</v>
       </c>
@@ -4894,7 +5349,7 @@
       <c r="E23" s="31"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -4903,28 +5358,36 @@
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:8" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="65"/>
-    </row>
-    <row r="26" spans="1:8" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="70"/>
+    </row>
+    <row r="26" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="B26" s="67">
+        <v>70</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -4932,116 +5395,165 @@
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="49"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="78">
+        <v>15</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="65"/>
-    </row>
-    <row r="29" spans="1:8" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="70"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="48"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:8" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="70"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="65"/>
-    </row>
-    <row r="35" spans="1:8" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="70"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="69"/>
       <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
       <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="65"/>
-    </row>
-    <row r="38" spans="1:8" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="70"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
       <c r="H38" s="48"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -5049,29 +5561,38 @@
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
       <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="65"/>
-    </row>
-    <row r="41" spans="1:8" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="70"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="81"/>
       <c r="H41" s="48"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -5079,8 +5600,11 @@
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -5088,8 +5612,11 @@
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -5097,7 +5624,7 @@
       <c r="F44" s="33"/>
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -5106,7 +5633,7 @@
       <c r="F45" s="33"/>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -5131,11 +5658,31 @@
     <mergeCell ref="B38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f96af7b-f6a7-4527-806b-a1167a39af4c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e857c837-65f1-4774-9197-658e0eb27a8b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005126D5E415BAAE4E81CFB5C67BF31910" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f02bab0447f2323ec64b65a92c2d6a7b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e857c837-65f1-4774-9197-658e0eb27a8b" xmlns:ns3="9f96af7b-f6a7-4527-806b-a1167a39af4c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ded2024b6091500cf4e3b59f4ebbccfa" ns2:_="" ns3:_="">
     <xsd:import namespace="e857c837-65f1-4774-9197-658e0eb27a8b"/>
@@ -5384,27 +5931,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f96af7b-f6a7-4527-806b-a1167a39af4c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e857c837-65f1-4774-9197-658e0eb27a8b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4A8ED2-4A4C-4E4C-BE2F-BB5D7A1E06A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{247195BE-9D1C-4C31-860B-57A1B588A496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f96af7b-f6a7-4527-806b-a1167a39af4c"/>
+    <ds:schemaRef ds:uri="e857c837-65f1-4774-9197-658e0eb27a8b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F144DF96-8F56-4626-9EF9-6A748087B034}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5421,23 +5967,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{247195BE-9D1C-4C31-860B-57A1B588A496}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9f96af7b-f6a7-4527-806b-a1167a39af4c"/>
-    <ds:schemaRef ds:uri="e857c837-65f1-4774-9197-658e0eb27a8b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4A8ED2-4A4C-4E4C-BE2F-BB5D7A1E06A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>